--- a/assets/data/Affix.xlsx
+++ b/assets/data/Affix.xlsx
@@ -1,40 +1,252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B01F84-B63F-4F59-B07F-C611FFA5D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true ConstName:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true ConstValue:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFFIX_LETHALITY</t>
+  </si>
+  <si>
+    <t>AFFIX_SNAKE</t>
+  </si>
+  <si>
+    <t>AFFIX_QUICKNESS</t>
+  </si>
+  <si>
+    <t>AFFIX_WIND_SERPENT</t>
+  </si>
+  <si>
+    <t>AFFIX_BRUTE</t>
+  </si>
+  <si>
+    <t>AFFIX_DEXTERITY</t>
+  </si>
+  <si>
+    <t>AFFIX_WISDOM</t>
+  </si>
+  <si>
+    <t>AFFIX_VITALITY</t>
+  </si>
+  <si>
+    <t>AFFIX_CHAMPION</t>
+  </si>
+  <si>
+    <t>AFFIX_BUTCHER</t>
+  </si>
+  <si>
+    <t>AFFIX_ASSASSIN</t>
+  </si>
+  <si>
+    <t>AFFIX_RANGER</t>
+  </si>
+  <si>
+    <t>AFFIX_WIZARD</t>
+  </si>
+  <si>
+    <t>AFFIX_PRIEST</t>
+  </si>
+  <si>
+    <t>AFFIX_GUARDIAN</t>
+  </si>
+  <si>
+    <t>AFFIX_MASTERY</t>
+  </si>
+  <si>
+    <t>AFFIX_BLUR</t>
+  </si>
+  <si>
+    <t>AFFIX_STRONGHOLD</t>
+  </si>
+  <si>
+    <t>AFFIX_DEEP_SEA</t>
+  </si>
+  <si>
+    <t>AFFIX_VOID</t>
+  </si>
+  <si>
+    <t>AFFIX_HEAVY</t>
+  </si>
+  <si>
+    <t>AFFIX_STRONG</t>
+  </si>
+  <si>
+    <t>AFFIX_SHARP</t>
+  </si>
+  <si>
+    <t>AFFIX_AGILE</t>
+  </si>
+  <si>
+    <t>AFFIX_SHIMERING</t>
+  </si>
+  <si>
+    <t>AFFIX_INTELLIGENT</t>
+  </si>
+  <si>
+    <t>AFFIX_ENDURABLE</t>
+  </si>
+  <si>
+    <t>AFFIX_VIBRANT</t>
+  </si>
+  <si>
+    <t>AFFIX_SKILLED</t>
+  </si>
+  <si>
+    <t>AFFIX_CRUEL</t>
+  </si>
+  <si>
+    <t>AFFIX_ENCHANTED</t>
+  </si>
+  <si>
+    <t>AFFIX_SORCEROUS</t>
+  </si>
+  <si>
+    <t>AFFIX_MYSTERIOUS</t>
+  </si>
+  <si>
+    <t>AFFIX_ETERNAL</t>
+  </si>
+  <si>
+    <t>AFFIX_STEADY</t>
+  </si>
+  <si>
+    <t>AFFIX_TOUGH</t>
+  </si>
+  <si>
+    <t>AFFIX_HEALTHY</t>
+  </si>
+  <si>
+    <t>AFFIX_EVERLASTING</t>
+  </si>
+  <si>
+    <t>AFFIX_VAMPIRE</t>
+  </si>
+  <si>
+    <t>AFFIX_SUCCUBUS</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词缀类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAFX_SUFIX</t>
+  </si>
+  <si>
+    <t>IAFX_PREFIX</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>[]TVarAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +545,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>